--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0190/1/template_RP0190.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0190/1/template_RP0190.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TMQリモート\CommonTemplate\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0190\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TMQ\CommonTemplate\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0190\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0442D5BE-90EF-40AF-99E2-197B5ADDB2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7621357-04A4-4D6A-9AE3-36C57CFF55DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="予備品情報" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,6 +135,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -417,27 +420,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U4"/>
+  <dimension ref="B1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="14" max="15" width="9" style="4"/>
-    <col min="19" max="20" width="9" style="4"/>
-    <col min="21" max="21" width="9" style="6"/>
+    <col min="1" max="14" width="9" style="7"/>
+    <col min="15" max="16" width="9" style="4"/>
+    <col min="17" max="19" width="9" style="7"/>
+    <col min="20" max="20" width="9" style="4"/>
+    <col min="21" max="21" width="9" style="7"/>
+    <col min="22" max="22" width="9" style="4"/>
+    <col min="23" max="23" width="9" style="6"/>
+    <col min="24" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
     </row>
-    <row r="2" spans="2:21" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:21" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,20 +459,8 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-    </row>
+    <row r="3" spans="2:21" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:21" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
